--- a/ass/card_behavior_matrix.xlsx
+++ b/ass/card_behavior_matrix.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>保險</t>
+  </si>
+  <si>
+    <t>國外</t>
+  </si>
+  <si>
+    <t>網購</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
   <si>
     <t>旅遊</t>
   </si>
@@ -22,37 +34,40 @@
     <t>電影</t>
   </si>
   <si>
-    <t>加油</t>
-  </si>
-  <si>
-    <t>保險</t>
-  </si>
-  <si>
-    <t>國外</t>
+    <t>紅利</t>
   </si>
   <si>
     <t>運動</t>
   </si>
   <si>
+    <t>行動支付</t>
+  </si>
+  <si>
+    <t>百貨</t>
+  </si>
+  <si>
+    <t>賴點</t>
+  </si>
+  <si>
+    <t>Only</t>
+  </si>
+  <si>
+    <t>Linepay</t>
+  </si>
+  <si>
+    <t>GOGO</t>
+  </si>
+  <si>
+    <t>Flygo</t>
+  </si>
+  <si>
+    <t>dawho</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
     <t>Ubear</t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>Only</t>
-  </si>
-  <si>
-    <t>GOGO</t>
-  </si>
-  <si>
-    <t>Linepay</t>
-  </si>
-  <si>
-    <t>Flygo</t>
-  </si>
-  <si>
-    <t>dawho</t>
   </si>
 </sst>
 </file>
@@ -410,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,166 +450,297 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ass/card_behavior_matrix.xlsx
+++ b/ass/card_behavior_matrix.xlsx
@@ -16,58 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>旅遊</t>
+  </si>
+  <si>
+    <t>電影</t>
+  </si>
+  <si>
+    <t>百貨</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
+  <si>
+    <t>網購</t>
+  </si>
+  <si>
+    <t>國外</t>
+  </si>
+  <si>
+    <t>行動支付</t>
+  </si>
+  <si>
+    <t>紅利</t>
+  </si>
+  <si>
     <t>保險</t>
   </si>
   <si>
-    <t>國外</t>
-  </si>
-  <si>
-    <t>網購</t>
-  </si>
-  <si>
-    <t>加油</t>
-  </si>
-  <si>
-    <t>旅遊</t>
-  </si>
-  <si>
-    <t>電影</t>
-  </si>
-  <si>
-    <t>紅利</t>
-  </si>
-  <si>
     <t>運動</t>
   </si>
   <si>
-    <t>行動支付</t>
-  </si>
-  <si>
-    <t>百貨</t>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>dawho</t>
+  </si>
+  <si>
+    <t>Linepay</t>
+  </si>
+  <si>
+    <t>Ubear</t>
+  </si>
+  <si>
+    <t>GOGO</t>
+  </si>
+  <si>
+    <t>Only</t>
   </si>
   <si>
     <t>賴點</t>
   </si>
   <si>
-    <t>Only</t>
-  </si>
-  <si>
-    <t>Linepay</t>
-  </si>
-  <si>
-    <t>GOGO</t>
-  </si>
-  <si>
     <t>Flygo</t>
-  </si>
-  <si>
-    <t>dawho</t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>Ubear</t>
   </si>
 </sst>
 </file>
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>16</v>
       </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
       <c r="I2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,34 +503,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,34 +538,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,34 +573,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -608,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -643,19 +643,19 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,34 +678,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,31 +713,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
